--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +952,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -987,28 +999,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1045,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1299,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1346,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1392,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1605,10 +1617,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1652,28 +1664,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1698,28 +1710,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1923,10 +1935,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1970,28 +1982,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2016,28 +2028,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2212,10 +2224,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2259,28 +2271,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2305,28 +2317,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2530,10 +2542,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2577,28 +2589,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2623,28 +2635,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2848,10 +2860,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2895,28 +2907,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2941,28 +2953,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3137,10 +3149,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3184,28 +3196,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3230,28 +3242,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3455,10 +3467,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3502,28 +3514,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3548,28 +3560,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3686,10 +3698,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3733,28 +3745,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3779,28 +3791,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3946,10 +3958,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="J132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3993,28 +4005,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4039,28 +4051,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4235,10 +4247,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4282,28 +4294,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4328,28 +4340,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4536,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4571,28 +4583,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4629,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4784,10 +4796,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4831,28 +4843,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4877,28 +4889,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5015,10 +5027,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5062,28 +5074,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5108,28 +5120,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5246,10 +5258,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
+      <c r="J177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5293,28 +5305,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5339,28 +5351,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5477,10 +5489,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
+      <c r="J185" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="2" t="s">
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5524,28 +5536,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5570,28 +5582,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
